--- a/Lamia/DBASE/create/Base2_digue_0_2.xlsx
+++ b/Lamia/DBASE/create/Base2_digue_0_2.xlsx
@@ -4,26 +4,27 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="390" windowWidth="28275" windowHeight="12300" tabRatio="691" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="390" windowWidth="28275" windowHeight="12300" tabRatio="774" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="4" r:id="rId1"/>
-    <sheet name="02_Zonegeo" sheetId="5" r:id="rId2"/>
-    <sheet name="03_Desordre" sheetId="6" r:id="rId3"/>
-    <sheet name="04_Infralineaire" sheetId="8" r:id="rId4"/>
-    <sheet name="04_Equipement" sheetId="7" r:id="rId5"/>
-    <sheet name="04_Observation" sheetId="9" r:id="rId6"/>
-    <sheet name="05_Graphique" sheetId="10" r:id="rId7"/>
-    <sheet name="06_Graphiquedata" sheetId="11" r:id="rId8"/>
-    <sheet name="06_Pointtopo" sheetId="12" r:id="rId9"/>
-    <sheet name="09_Dernieresobservations" sheetId="13" r:id="rId10"/>
+    <sheet name="02_Descriptionsystem" sheetId="14" r:id="rId2"/>
+    <sheet name="02_Zonegeo" sheetId="5" r:id="rId3"/>
+    <sheet name="03_Desordre" sheetId="6" r:id="rId4"/>
+    <sheet name="04_Infralineaire" sheetId="8" r:id="rId5"/>
+    <sheet name="04_Equipement" sheetId="7" r:id="rId6"/>
+    <sheet name="04_Observation" sheetId="9" r:id="rId7"/>
+    <sheet name="05_Graphique" sheetId="10" r:id="rId8"/>
+    <sheet name="06_Graphiquedata" sheetId="11" r:id="rId9"/>
+    <sheet name="06_Pointtopo" sheetId="12" r:id="rId10"/>
+    <sheet name="09_Dernieresobservations" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="787">
   <si>
     <t>00_Basedonnees</t>
   </si>
@@ -2357,6 +2358,33 @@
   </si>
   <si>
     <t>AUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">etatfonct </t>
+  </si>
+  <si>
+    <t>Hors service</t>
+  </si>
+  <si>
+    <t>Mauvais</t>
+  </si>
+  <si>
+    <t>Moyen</t>
+  </si>
+  <si>
+    <t>Bon</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Perré maçonné</t>
+  </si>
+  <si>
+    <t>PMA</t>
   </si>
 </sst>
 </file>
@@ -2419,7 +2447,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" quotePrefix="1"/>
@@ -2446,6 +2474,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -3089,6 +3118,118 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.28515625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="21" style="8" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" style="8" customWidth="1"/>
+    <col min="4" max="14" width="21" style="8" customWidth="1"/>
+    <col min="15" max="16384" width="11.42578125" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F4" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F5" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F6" s="8" t="s">
+        <v>586</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F7" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F8" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>582</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3310,10 +3451,114 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.7109375" style="15" customWidth="1"/>
+    <col min="2" max="2" width="21" style="15" customWidth="1"/>
+    <col min="3" max="3" width="30" style="15" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" style="15" customWidth="1"/>
+    <col min="5" max="6" width="17.140625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="17" style="15" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" style="15" customWidth="1"/>
+    <col min="9" max="1021" width="10.7109375" style="15" customWidth="1"/>
+    <col min="1022" max="16384" width="9.140625" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>778</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F3" s="20" t="s">
+        <v>779</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F4" s="15" t="s">
+        <v>780</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F5" s="15" t="s">
+        <v>781</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F6" s="15" t="s">
+        <v>782</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F7" s="15" t="s">
+        <v>783</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>784</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3433,12 +3678,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K93"/>
+  <dimension ref="A1:K96"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B106" sqref="B106"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4967,7 +5212,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="81" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F81" s="5" t="s">
         <v>207</v>
       </c>
@@ -4987,7 +5232,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="82" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F82" s="5" t="s">
         <v>208</v>
       </c>
@@ -5007,7 +5252,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="83" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F83" s="5" t="s">
         <v>209</v>
       </c>
@@ -5027,7 +5272,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="84" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F84" s="5" t="s">
         <v>211</v>
       </c>
@@ -5047,7 +5292,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="85" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F85" s="5" t="s">
         <v>212</v>
       </c>
@@ -5067,7 +5312,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="86" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F86" s="5" t="s">
         <v>213</v>
       </c>
@@ -5087,7 +5332,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="87" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F87" s="5" t="s">
         <v>214</v>
       </c>
@@ -5107,7 +5352,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="88" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F88" s="5" t="s">
         <v>216</v>
       </c>
@@ -5127,7 +5372,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="89" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F89" s="5" t="s">
         <v>217</v>
       </c>
@@ -5147,7 +5392,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="90" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F90" s="5" t="s">
         <v>218</v>
       </c>
@@ -5167,7 +5412,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="91" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F91" s="5" t="s">
         <v>219</v>
       </c>
@@ -5187,7 +5432,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="92" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F92" s="5" t="s">
         <v>221</v>
       </c>
@@ -5198,21 +5443,39 @@
         <v>220</v>
       </c>
     </row>
-    <row r="93" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="7"/>
+      <c r="B94" s="15"/>
+      <c r="C94" s="16"/>
+      <c r="D94" s="16"/>
+      <c r="E94" s="16"/>
+      <c r="F94" s="18"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
+      <c r="H95" s="7"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -5531,16 +5794,16 @@
         <v>396</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C19" s="5"/>
+    <row r="19" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="16"/>
       <c r="D19" s="3"/>
-      <c r="F19" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="H19" s="1" t="s">
+      <c r="F19" s="15" t="s">
+        <v>785</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>786</v>
+      </c>
+      <c r="H19" s="15" t="s">
         <v>396</v>
       </c>
       <c r="I19" s="1" t="s">
@@ -5557,12 +5820,12 @@
       <c r="C20" s="5"/>
       <c r="D20" s="3"/>
       <c r="F20" s="1" t="s">
-        <v>772</v>
+        <v>403</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="H20" s="15" t="s">
+        <v>776</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>396</v>
       </c>
       <c r="I20" s="1" t="s">
@@ -5575,235 +5838,228 @@
         <v>396</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="16"/>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C21" s="5"/>
       <c r="D21" s="3"/>
       <c r="F21" s="1" t="s">
-        <v>151</v>
+        <v>772</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="H21" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="H21" s="15" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" s="5"/>
+    <row r="22" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="16"/>
       <c r="D22" s="3"/>
       <c r="F22" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>95</v>
+        <v>151</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="C23" s="5"/>
       <c r="D23" s="3"/>
       <c r="F23" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>407</v>
+        <v>95</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>407</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C24" s="5"/>
       <c r="D24" s="3"/>
       <c r="F24" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C25" s="5"/>
       <c r="D25" s="3"/>
       <c r="F25" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C26" s="5"/>
       <c r="D26" s="3"/>
       <c r="F26" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="C27" s="5"/>
       <c r="D27" s="3"/>
       <c r="F27" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="3"/>
+      <c r="F28" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="I28" s="1" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F28" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="G28" s="1">
-        <v>0</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="J28" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F29" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F30" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F31" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F32" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="I32" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="J32" s="1" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="H33" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="I33" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="J33" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="K33" s="1" t="s">
         <v>421</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F33" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="G33" s="1">
-        <v>0</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="J33" s="1">
-        <v>0</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F34" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>423</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="J34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>423</v>
@@ -5811,19 +6067,19 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F35" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G35" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>423</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J35" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>423</v>
@@ -5831,88 +6087,88 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F36" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G36" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>423</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J36" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="F37" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="G37" s="1">
+        <v>3</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J37" s="1">
+        <v>3</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G38" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="I38" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="J38" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="K37" s="1" t="s">
+      <c r="K38" s="1" t="s">
         <v>421</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F38" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="G38" s="1">
-        <v>0</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="J38" s="1">
-        <v>0</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F39" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>423</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="J39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>423</v>
@@ -5920,19 +6176,19 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F40" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G40" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>423</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J40" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>423</v>
@@ -5940,88 +6196,88 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F41" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G41" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>423</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J41" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="F42" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="G42" s="1">
+        <v>3</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J42" s="1">
+        <v>3</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="H43" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="I43" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="J43" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="K42" s="1" t="s">
+      <c r="K43" s="1" t="s">
         <v>421</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F43" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="G43" s="1">
-        <v>0</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="J43" s="1">
-        <v>0</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F44" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>423</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="J44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>423</v>
@@ -6029,19 +6285,19 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F45" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G45" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>423</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J45" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>423</v>
@@ -6049,73 +6305,93 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F46" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G46" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>423</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J46" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="F47" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="G47" s="1">
+        <v>3</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J47" s="1">
+        <v>3</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>430</v>
+        <v>224</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D51" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>435</v>
       </c>
     </row>
@@ -6125,7 +6401,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K115"/>
   <sheetViews>
@@ -8185,7 +8461,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
@@ -8516,7 +8792,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
@@ -8610,7 +8886,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H82"/>
   <sheetViews>
@@ -9333,116 +9609,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H40"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30.28515625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="21" style="8" customWidth="1"/>
-    <col min="3" max="3" width="30.5703125" style="8" customWidth="1"/>
-    <col min="4" max="14" width="21" style="8" customWidth="1"/>
-    <col min="15" max="16384" width="11.42578125" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>581</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F4" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F5" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F6" s="8" t="s">
-        <v>586</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F7" s="8" t="s">
-        <v>588</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F8" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
-        <v>582</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>